--- a/profile_table.xlsx
+++ b/profile_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\geekshop-server\geekshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{511E0E6B-ECC5-4A90-9288-D78B245B1072}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D61098-488C-47E4-A633-0C8006FFA1A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30015" windowHeight="11280" xr2:uid="{5ACEE865-1E86-4791-87CF-A852816C82FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>addr</t>
   </si>
@@ -105,7 +105,10 @@
     <t>/admins/update_user/17</t>
   </si>
   <si>
-    <t>До профилирования</t>
+    <t>После профилирования 1</t>
+  </si>
+  <si>
+    <t>До профилирования 0</t>
   </si>
 </sst>
 </file>
@@ -317,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -345,6 +348,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -659,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1710AE92-3CBA-4AC4-B703-31AA1F9311FC}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -672,18 +678,27 @@
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="11"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="14"/>
       <c r="B1" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -699,8 +714,20 @@
       <c r="E2" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="5" customFormat="1">
+      <c r="F2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -716,8 +743,20 @@
       <c r="E3" s="9">
         <v>9.94</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1">
+      <c r="F3" s="8">
+        <v>39</v>
+      </c>
+      <c r="G3" s="5">
+        <v>34</v>
+      </c>
+      <c r="H3" s="5">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -733,8 +772,20 @@
       <c r="E4" s="11">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1">
+      <c r="F4" s="20">
+        <v>31</v>
+      </c>
+      <c r="G4" s="19">
+        <v>25</v>
+      </c>
+      <c r="H4" s="19">
+        <v>23</v>
+      </c>
+      <c r="I4" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -750,8 +801,20 @@
       <c r="E5" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1">
+      <c r="F5" s="20">
+        <v>7</v>
+      </c>
+      <c r="G5" s="19">
+        <v>4</v>
+      </c>
+      <c r="H5" s="19">
+        <v>4</v>
+      </c>
+      <c r="I5" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -767,8 +830,20 @@
       <c r="E6" s="11">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1">
+      <c r="F6" s="20">
+        <v>11</v>
+      </c>
+      <c r="G6" s="19">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2</v>
+      </c>
+      <c r="I6" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -784,8 +859,20 @@
       <c r="E7" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1">
+      <c r="F7" s="20">
+        <v>8</v>
+      </c>
+      <c r="G7" s="19">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19">
+        <v>3</v>
+      </c>
+      <c r="I7" s="21">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -801,8 +888,20 @@
       <c r="E8" s="11">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1">
+      <c r="F8" s="20">
+        <v>7</v>
+      </c>
+      <c r="G8" s="19">
+        <v>2</v>
+      </c>
+      <c r="H8" s="19">
+        <v>2</v>
+      </c>
+      <c r="I8" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -818,8 +917,20 @@
       <c r="E9" s="11">
         <v>2.0099999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1">
+      <c r="F9" s="20">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2</v>
+      </c>
+      <c r="H9" s="19">
+        <v>2</v>
+      </c>
+      <c r="I9" s="21">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -835,8 +946,20 @@
       <c r="E10" s="11">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1">
+      <c r="F10" s="20">
+        <v>5</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -852,8 +975,20 @@
       <c r="E11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1">
+      <c r="F11" s="20">
+        <v>6</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -869,8 +1004,20 @@
       <c r="E12" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F12" s="20">
+        <v>4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -886,8 +1033,20 @@
       <c r="E13" s="13">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="12">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -904,7 +1063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -921,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1061,8 +1220,9 @@
       <c r="A41" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/profile_table.xlsx
+++ b/profile_table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\geekshop-server\geekshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D61098-488C-47E4-A633-0C8006FFA1A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899555EF-843E-4EE2-B052-78DD50CA928E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30015" windowHeight="11280" xr2:uid="{5ACEE865-1E86-4791-87CF-A852816C82FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30015" windowHeight="11280" activeTab="1" xr2:uid="{5ACEE865-1E86-4791-87CF-A852816C82FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Профилирование" sheetId="1" r:id="rId1"/>
+    <sheet name="Нагрузка" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,20 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
-  <si>
-    <t>addr</t>
-  </si>
-  <si>
-    <t>запросов</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>similar</t>
   </si>
   <si>
-    <t>duplicates</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
@@ -99,23 +91,172 @@
     <t>/users/register/</t>
   </si>
   <si>
-    <t>ms</t>
-  </si>
-  <si>
     <t>/admins/update_user/17</t>
   </si>
   <si>
-    <t>После профилирования 1</t>
-  </si>
-  <si>
     <t>До профилирования 0</t>
+  </si>
+  <si>
+    <t>После профилирования 2 db_index</t>
+  </si>
+  <si>
+    <t>.-r32 -c32</t>
+  </si>
+  <si>
+    <t>.-r16 -c64</t>
+  </si>
+  <si>
+    <t>.-r8 -c128</t>
+  </si>
+  <si>
+    <t>Число переходов</t>
+  </si>
+  <si>
+    <t>Доступность сервера</t>
+  </si>
+  <si>
+    <t>Время теста, с</t>
+  </si>
+  <si>
+    <t>Время отклика, с</t>
+  </si>
+  <si>
+    <t>Запросов в секунду</t>
+  </si>
+  <si>
+    <t>Согласованность</t>
+  </si>
+  <si>
+    <t>Удачных транзакций</t>
+  </si>
+  <si>
+    <t>Неудачных транзакций</t>
+  </si>
+  <si>
+    <t>Самая долгая транзакция, с</t>
+  </si>
+  <si>
+    <t>Параметр</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Запросов</t>
+  </si>
+  <si>
+    <t>Дублей</t>
+  </si>
+  <si>
+    <t>мс</t>
+  </si>
+  <si>
+    <t>После профилирования 1 id</t>
+  </si>
+  <si>
+    <t>Пропускная способность, МБ/сек</t>
+  </si>
+  <si>
+    <t>Killed</t>
+  </si>
+  <si>
+    <t>.-r12 -c96</t>
+  </si>
+  <si>
+    <t>Изменения</t>
+  </si>
+  <si>
+    <t>.-r10 -c112</t>
+  </si>
+  <si>
+    <t>Когда число пользователей приближается к 100 сервер начинает падать, о чем свидетельствует доступность сервера и количество неудачных транзакций.</t>
+  </si>
+  <si>
+    <t>Ссылки после /products/ решено не использовать в профилировании базы данных, потому что там нет дублей запросов.</t>
+  </si>
+  <si>
+    <t>Изменения после профилирования не обрадовали, потому хоть запросов и стало меньше, но общее время запросов увеличилось.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Были применены </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>backet контекст</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> был немного изменен, были добавлены </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>db_index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в моделях.</t>
+    </r>
+  </si>
+  <si>
+    <t>.-r9 -c120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,16 +271,62 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -280,19 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -320,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -337,20 +511,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -665,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1710AE92-3CBA-4AC4-B703-31AA1F9311FC}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -681,408 +877,628 @@
     <col min="6" max="6" width="9.140625" style="10"/>
     <col min="7" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="9.140625" style="11"/>
+    <col min="10" max="10" width="9.140625" style="10"/>
+    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="11"/>
+    <col min="14" max="14" width="9.140625" style="10"/>
+    <col min="15" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:17" s="5" customFormat="1">
+      <c r="A1" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1">
+      <c r="A2" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1">
+      <c r="A3" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="7" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" s="7" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="5" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9">
+        <v>9.94</v>
+      </c>
+      <c r="F7" s="8">
+        <v>36</v>
+      </c>
+      <c r="G7" s="5">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5">
+        <v>24</v>
+      </c>
+      <c r="I7" s="9">
+        <v>7</v>
+      </c>
+      <c r="J7" s="8">
+        <v>35</v>
+      </c>
+      <c r="K7" s="5">
+        <v>30</v>
+      </c>
+      <c r="L7" s="5">
+        <v>24</v>
+      </c>
+      <c r="M7" s="9">
+        <v>17.23</v>
+      </c>
+      <c r="N7" s="23">
+        <f>J7-B7</f>
+        <v>-7</v>
+      </c>
+      <c r="O7" s="24">
+        <f t="shared" ref="O7:Q7" si="0">K7-C7</f>
+        <v>-7</v>
+      </c>
+      <c r="P7" s="24">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="Q7" s="21">
+        <f t="shared" si="0"/>
+        <v>7.2900000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>23</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3.98</v>
+      </c>
+      <c r="F8" s="15">
+        <v>29</v>
+      </c>
+      <c r="G8" s="14">
+        <v>23</v>
+      </c>
+      <c r="H8" s="14">
+        <v>23</v>
+      </c>
+      <c r="I8" s="16">
+        <v>6</v>
+      </c>
+      <c r="J8" s="10">
+        <v>29</v>
+      </c>
+      <c r="K8" s="14">
+        <v>23</v>
+      </c>
+      <c r="L8" s="14">
+        <v>23</v>
+      </c>
+      <c r="M8" s="11">
+        <v>16.09</v>
+      </c>
+      <c r="N8" s="25">
+        <f t="shared" ref="N8:N17" si="1">J8-B8</f>
+        <v>-2</v>
+      </c>
+      <c r="O8" s="26">
+        <f t="shared" ref="O8:O17" si="2">K8-C8</f>
+        <v>-2</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" ref="P8:P17" si="3">L8-D8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <f t="shared" ref="Q8:Q17" si="4">M8-E8</f>
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15">
+        <v>7</v>
+      </c>
+      <c r="G9" s="14">
+        <v>4</v>
+      </c>
+      <c r="H9" s="14">
+        <v>4</v>
+      </c>
+      <c r="I9" s="16">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10">
+        <v>7</v>
+      </c>
+      <c r="K9" s="14">
+        <v>4</v>
+      </c>
+      <c r="L9" s="14">
+        <v>4</v>
+      </c>
+      <c r="M9" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="N9" s="25">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="O9" s="26">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="P9" s="26">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="Q9" s="22">
+        <f t="shared" si="4"/>
+        <v>2.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3.98</v>
+      </c>
+      <c r="F10" s="15">
+        <v>11</v>
+      </c>
+      <c r="G10" s="14">
+        <v>6</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2</v>
+      </c>
+      <c r="I10" s="16">
+        <v>2</v>
+      </c>
+      <c r="J10" s="10">
+        <v>11</v>
+      </c>
+      <c r="K10" s="14">
+        <v>6</v>
+      </c>
+      <c r="L10" s="14">
+        <v>2</v>
+      </c>
+      <c r="M10" s="11">
+        <v>7.09</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="22">
+        <f t="shared" si="4"/>
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="15">
+        <v>8</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>3</v>
+      </c>
+      <c r="I11" s="16">
+        <v>3.93</v>
+      </c>
+      <c r="J11" s="10">
+        <v>8</v>
+      </c>
+      <c r="K11" s="14">
+        <v>3</v>
+      </c>
+      <c r="L11" s="14">
+        <v>3</v>
+      </c>
+      <c r="M11" s="11">
+        <v>8.17</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="22">
+        <f t="shared" si="4"/>
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3.02</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+      <c r="H12" s="14">
+        <v>2</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="10">
+        <v>7</v>
+      </c>
+      <c r="K12" s="14">
+        <v>2</v>
+      </c>
+      <c r="L12" s="14">
+        <v>2</v>
+      </c>
+      <c r="M12" s="11">
+        <v>6.22</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="4"/>
+        <v>3.1999999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F13" s="15">
+        <v>5</v>
+      </c>
+      <c r="G13" s="14">
+        <v>2</v>
+      </c>
+      <c r="H13" s="14">
+        <v>2</v>
+      </c>
+      <c r="I13" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8">
-        <v>42</v>
-      </c>
-      <c r="C3" s="5">
-        <v>37</v>
-      </c>
-      <c r="D3" s="5">
-        <v>34</v>
-      </c>
-      <c r="E3" s="9">
-        <v>9.94</v>
-      </c>
-      <c r="F3" s="8">
-        <v>39</v>
-      </c>
-      <c r="G3" s="5">
-        <v>34</v>
-      </c>
-      <c r="H3" s="5">
-        <v>31</v>
-      </c>
-      <c r="I3" s="9">
-        <v>7.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="10">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1">
-        <v>23</v>
-      </c>
-      <c r="E4" s="11">
-        <v>3.98</v>
-      </c>
-      <c r="F4" s="20">
-        <v>31</v>
-      </c>
-      <c r="G4" s="19">
-        <v>25</v>
-      </c>
-      <c r="H4" s="19">
-        <v>23</v>
-      </c>
-      <c r="I4" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1">
-      <c r="A5" s="3" t="s">
+      <c r="J13" s="10">
         <v>5</v>
       </c>
-      <c r="B5" s="10">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11">
-        <v>4</v>
-      </c>
-      <c r="F5" s="20">
-        <v>7</v>
-      </c>
-      <c r="G5" s="19">
-        <v>4</v>
-      </c>
-      <c r="H5" s="19">
-        <v>4</v>
-      </c>
-      <c r="I5" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11">
-        <v>3.98</v>
-      </c>
-      <c r="F6" s="20">
-        <v>11</v>
-      </c>
-      <c r="G6" s="19">
-        <v>6</v>
-      </c>
-      <c r="H6" s="19">
-        <v>2</v>
-      </c>
-      <c r="I6" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="10">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11">
-        <v>3</v>
-      </c>
-      <c r="F7" s="20">
-        <v>8</v>
-      </c>
-      <c r="G7" s="19">
-        <v>3</v>
-      </c>
-      <c r="H7" s="19">
-        <v>3</v>
-      </c>
-      <c r="I7" s="21">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="10">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="11">
-        <v>3.02</v>
-      </c>
-      <c r="F8" s="20">
-        <v>7</v>
-      </c>
-      <c r="G8" s="19">
-        <v>2</v>
-      </c>
-      <c r="H8" s="19">
-        <v>2</v>
-      </c>
-      <c r="I8" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="10">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="F9" s="20">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19">
-        <v>2</v>
-      </c>
-      <c r="H9" s="19">
-        <v>2</v>
-      </c>
-      <c r="I9" s="21">
-        <v>4.1100000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1.98</v>
-      </c>
-      <c r="F10" s="20">
-        <v>5</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="20">
-        <v>6</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>3</v>
-      </c>
-      <c r="F12" s="20">
-        <v>4</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="12">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2.97</v>
-      </c>
-      <c r="F13" s="12">
-        <v>7</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="14">
+        <v>2</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2</v>
+      </c>
+      <c r="M13" s="11">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="4"/>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B14" s="10">
         <v>8</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="F14" s="15">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>2</v>
+      </c>
+      <c r="J14" s="10">
+        <v>5</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="N14" s="25">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="O14" s="26">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22">
+        <f t="shared" si="4"/>
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>6</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="10">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="10">
+        <v>6</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>3</v>
+      </c>
+      <c r="N15" s="25">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="O15" s="26">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B16" s="10">
         <v>5</v>
@@ -1094,32 +1510,112 @@
         <v>0</v>
       </c>
       <c r="E16" s="11">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="15">
         <v>4</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="J16" s="10">
+        <v>4</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="7" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2.97</v>
+      </c>
+      <c r="F17" s="12">
+        <v>7</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3</v>
+      </c>
+      <c r="J17" s="12">
+        <v>7</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
+        <v>3</v>
+      </c>
+      <c r="N17" s="27">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <f t="shared" si="4"/>
+        <v>2.9999999999999805E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B18" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1131,9 +1627,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:17">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B19" s="10">
         <v>5</v>
@@ -1148,43 +1644,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B20" s="10">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="10">
         <v>4</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="10">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:17">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B22" s="10">
         <v>5</v>
@@ -1196,35 +1692,349 @@
         <v>0</v>
       </c>
       <c r="E22" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="10">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="10">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="10">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
         <v>1.98</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="10">
+    <row r="27" spans="1:17">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="4"/>
+    <row r="45" spans="1:1">
+      <c r="A45" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14841E8D-2280-420E-8CCD-C816DA3F2170}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13408</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13568</v>
+      </c>
+      <c r="D4" s="1">
+        <v>13678</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8593</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1">
+        <v>313.88</v>
+      </c>
+      <c r="C6" s="1">
+        <v>334.31</v>
+      </c>
+      <c r="D6" s="1">
+        <v>403.12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>548.62</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42.72</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>33.93</v>
+      </c>
+      <c r="E8" s="1">
+        <v>15.66</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="A9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <v>31.46</v>
+      </c>
+      <c r="C10" s="1">
+        <v>62.66</v>
+      </c>
+      <c r="D10" s="1">
+        <v>92.07</v>
+      </c>
+      <c r="E10" s="1">
+        <v>108.68</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
+        <v>13408</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13568</v>
+      </c>
+      <c r="D11" s="1">
+        <v>13678</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8593</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="A12" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
+        <v>68</v>
+      </c>
+      <c r="E12" s="30">
+        <v>433</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A13" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="7">
+        <v>25.67</v>
+      </c>
+      <c r="C13" s="7">
+        <v>50.55</v>
+      </c>
+      <c r="D13" s="7">
+        <v>60.01</v>
+      </c>
+      <c r="E13" s="7">
+        <v>61.28</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/profile_table.xlsx
+++ b/profile_table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>similar</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>get_basket property</t>
+  </si>
+  <si>
+    <t>@cached_property</t>
+  </si>
+  <si>
+    <t>delete category from product.str()</t>
+  </si>
+  <si>
+    <t>get_object return request.user</t>
+  </si>
+  <si>
+    <t>product bulk_update</t>
   </si>
 </sst>
 </file>
@@ -886,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,110 +1231,274 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="28"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="25">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25">
+        <v>2</v>
+      </c>
+      <c r="D10" s="25">
+        <v>2</v>
+      </c>
+      <c r="E10" s="25">
+        <v>42.95</v>
+      </c>
+      <c r="F10" s="26">
+        <v>33</v>
+      </c>
+      <c r="G10" s="27">
+        <v>27</v>
+      </c>
+      <c r="H10" s="27">
+        <v>21</v>
+      </c>
+      <c r="I10" s="28">
+        <v>110.5</v>
+      </c>
+      <c r="J10" s="27">
+        <v>35</v>
+      </c>
+      <c r="K10" s="27">
+        <v>30</v>
+      </c>
+      <c r="L10" s="27">
+        <v>30</v>
+      </c>
+      <c r="M10" s="27">
+        <v>115.78</v>
+      </c>
+      <c r="N10" s="26">
+        <v>10</v>
+      </c>
+      <c r="O10" s="27">
+        <v>6</v>
+      </c>
+      <c r="P10" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="25">
+        <v>6</v>
+      </c>
+      <c r="C11" s="25">
+        <v>2</v>
+      </c>
+      <c r="D11" s="25">
+        <v>2</v>
+      </c>
+      <c r="E11" s="25">
+        <v>48.14</v>
+      </c>
+      <c r="F11" s="26">
+        <v>15</v>
+      </c>
+      <c r="G11" s="27">
+        <v>9</v>
+      </c>
+      <c r="H11" s="27">
+        <v>3</v>
+      </c>
+      <c r="I11" s="28">
+        <v>67.97</v>
+      </c>
+      <c r="J11" s="27">
+        <v>10</v>
+      </c>
+      <c r="K11" s="27">
+        <v>4</v>
+      </c>
+      <c r="L11" s="27">
+        <v>4</v>
+      </c>
+      <c r="M11" s="27">
+        <v>66.75</v>
+      </c>
+      <c r="N11" s="26">
+        <v>10</v>
+      </c>
+      <c r="O11" s="27">
+        <v>6</v>
+      </c>
+      <c r="P11" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>50.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="25">
+        <v>5</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>41.56</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26">
+        <v>9</v>
+      </c>
+      <c r="G13" s="27">
+        <v>3</v>
+      </c>
+      <c r="H13" s="27">
+        <v>3</v>
+      </c>
+      <c r="I13" s="28">
+        <v>56.87</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="28"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="35"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="35"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="39">
-        <f>B11-B7</f>
+      <c r="B16" s="39">
+        <f>B15-B7</f>
         <v>-7</v>
       </c>
-      <c r="C12" s="40">
-        <f t="shared" ref="C12:Q12" si="0">C11-C7</f>
+      <c r="C16" s="40">
+        <f t="shared" ref="C16:Q16" si="0">C15-C7</f>
         <v>-4</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D16" s="40">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E16" s="37">
         <f t="shared" si="0"/>
         <v>-6.9</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F16" s="36">
         <f t="shared" si="0"/>
         <v>-35</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G16" s="36">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H16" s="36">
         <f t="shared" si="0"/>
         <v>-24</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I16" s="36">
         <f t="shared" si="0"/>
         <v>-17.23</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J16" s="38">
         <f t="shared" si="0"/>
         <v>-36</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K16" s="36">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L16" s="36">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M16" s="37">
         <f t="shared" si="0"/>
         <v>-18.079999999999998</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N16" s="36">
         <f t="shared" si="0"/>
         <v>-11</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O16" s="36">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P16" s="36">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q16" s="37">
         <f t="shared" si="0"/>
         <v>-7.09</v>
       </c>

--- a/profile_table.xlsx
+++ b/profile_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30015" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30015" windowHeight="11280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Профилирование" sheetId="4" r:id="rId1"/>
@@ -111,83 +111,6 @@
     <t>Когда число пользователей приближается к 100 сервер начинает падать, о чем свидетельствует доступность сервера и количество неудачных транзакций.</t>
   </si>
   <si>
-    <t>Ссылки после /products/ решено не использовать в профилировании базы данных, потому что там нет дублей запросов.</t>
-  </si>
-  <si>
-    <t>Изменения после профилирования не обрадовали, потому хоть запросов и стало меньше, но общее время запросов увеличилось.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Были применены </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@property</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>backet контекст</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> был немного изменен, были добавлены </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>db_index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> в моделях.</t>
-    </r>
-  </si>
-  <si>
     <t>.-r9 -c120</t>
   </si>
   <si>
@@ -213,13 +136,22 @@
   </si>
   <si>
     <t>product bulk_update</t>
+  </si>
+  <si>
+    <t>memcached product and category</t>
+  </si>
+  <si>
+    <t>кэшируется только в каталоге, оценить прирост не удалось</t>
+  </si>
+  <si>
+    <t>template cache order_form product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,14 +192,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -312,15 +236,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -347,17 +262,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -511,6 +415,43 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -519,70 +460,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,608 +861,609 @@
     <col min="1" max="1" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="45"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1">
         <v>30</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="23" t="s">
+      <c r="H3" s="1">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4">
+        <v>17.23</v>
+      </c>
+      <c r="J3" s="1">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="N3" s="3">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="24">
+        <v>7</v>
+      </c>
+      <c r="C4" s="24">
+        <v>4</v>
+      </c>
+      <c r="D4" s="24">
+        <v>4</v>
+      </c>
+      <c r="E4" s="24">
+        <v>49.61</v>
+      </c>
+      <c r="F4" s="25">
+        <v>35</v>
+      </c>
+      <c r="G4" s="26">
+        <v>30</v>
+      </c>
+      <c r="H4" s="26">
+        <v>24</v>
+      </c>
+      <c r="I4" s="27">
+        <v>121.8</v>
+      </c>
+      <c r="J4" s="26">
+        <v>36</v>
+      </c>
+      <c r="K4" s="26">
+        <v>30</v>
+      </c>
+      <c r="L4" s="26">
+        <v>30</v>
+      </c>
+      <c r="M4" s="26">
+        <v>135.72</v>
+      </c>
+      <c r="N4" s="25">
+        <v>11</v>
+      </c>
+      <c r="O4" s="26">
+        <v>6</v>
+      </c>
+      <c r="P4" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>57.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="20">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20">
+        <v>2</v>
+      </c>
+      <c r="E5" s="20">
+        <v>42.14</v>
+      </c>
+      <c r="F5" s="21">
+        <v>33</v>
+      </c>
+      <c r="G5" s="22">
+        <v>27</v>
+      </c>
+      <c r="H5" s="22">
+        <v>21</v>
+      </c>
+      <c r="I5" s="23">
+        <v>106.19</v>
+      </c>
+      <c r="J5" s="22">
+        <v>35</v>
+      </c>
+      <c r="K5" s="22">
+        <v>30</v>
+      </c>
+      <c r="L5" s="22">
+        <v>30</v>
+      </c>
+      <c r="M5" s="22">
+        <v>120.65</v>
+      </c>
+      <c r="N5" s="21">
+        <v>10</v>
+      </c>
+      <c r="O5" s="22">
+        <v>6</v>
+      </c>
+      <c r="P5" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>46.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="20">
+        <v>6</v>
+      </c>
+      <c r="C6" s="20">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20">
+        <v>42.95</v>
+      </c>
+      <c r="F6" s="21">
+        <v>33</v>
+      </c>
+      <c r="G6" s="22">
+        <v>27</v>
+      </c>
+      <c r="H6" s="22">
+        <v>21</v>
+      </c>
+      <c r="I6" s="23">
+        <v>110.5</v>
+      </c>
+      <c r="J6" s="22">
+        <v>35</v>
+      </c>
+      <c r="K6" s="22">
+        <v>30</v>
+      </c>
+      <c r="L6" s="22">
+        <v>30</v>
+      </c>
+      <c r="M6" s="22">
+        <v>115.78</v>
+      </c>
+      <c r="N6" s="21">
+        <v>10</v>
+      </c>
+      <c r="O6" s="22">
+        <v>6</v>
+      </c>
+      <c r="P6" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="20">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20">
+        <v>2</v>
+      </c>
+      <c r="D7" s="20">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20">
+        <v>48.14</v>
+      </c>
+      <c r="F7" s="21">
+        <v>15</v>
+      </c>
+      <c r="G7" s="22">
+        <v>9</v>
+      </c>
+      <c r="H7" s="22">
         <v>3</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="17" t="s">
+      <c r="I7" s="23">
+        <v>67.97</v>
+      </c>
+      <c r="J7" s="22">
+        <v>10</v>
+      </c>
+      <c r="K7" s="22">
         <v>4</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="23" t="s">
+      <c r="L7" s="22">
+        <v>4</v>
+      </c>
+      <c r="M7" s="22">
+        <v>66.75</v>
+      </c>
+      <c r="N7" s="21">
+        <v>10</v>
+      </c>
+      <c r="O7" s="22">
+        <v>6</v>
+      </c>
+      <c r="P7" s="22">
         <v>2</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="Q7" s="23">
+        <v>50.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="20">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20">
         <v>0</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="D8" s="20">
         <v>0</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="21" t="s">
+      <c r="E8" s="20">
+        <v>41.56</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21">
+        <v>9</v>
+      </c>
+      <c r="G9" s="22">
+        <v>3</v>
+      </c>
+      <c r="H9" s="22">
+        <v>3</v>
+      </c>
+      <c r="I9" s="23">
+        <v>56.87</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="22">
+        <v>10</v>
+      </c>
+      <c r="K11" s="22">
+        <v>4</v>
+      </c>
+      <c r="L11" s="22">
+        <v>4</v>
+      </c>
+      <c r="M11" s="22">
+        <v>65.11</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="38">
+        <f>B8</f>
+        <v>5</v>
+      </c>
+      <c r="C12" s="38">
+        <f t="shared" ref="C12:E12" si="0">C8</f>
         <v>0</v>
       </c>
-      <c r="L6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="21" t="s">
+      <c r="D12" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="E12" s="39">
+        <f t="shared" si="0"/>
+        <v>41.56</v>
+      </c>
+      <c r="F12" s="28">
+        <f>F9</f>
+        <v>9</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" ref="G12:I12" si="1">G9</f>
+        <v>3</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" si="1"/>
+        <v>56.87</v>
+      </c>
+      <c r="J12" s="20">
+        <f>J11</f>
+        <v>10</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" ref="K12:M12" si="2">K11</f>
         <v>4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="L12" s="20">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E7" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="F7" s="5">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1">
-        <v>24</v>
-      </c>
-      <c r="I7" s="6">
-        <v>17.23</v>
-      </c>
-      <c r="J7" s="1">
-        <v>36</v>
-      </c>
-      <c r="K7" s="1">
-        <v>30</v>
-      </c>
-      <c r="L7" s="1">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1">
-        <v>18.079999999999998</v>
-      </c>
-      <c r="N7" s="5">
-        <v>11</v>
-      </c>
-      <c r="O7" s="1">
+      <c r="M12" s="20">
+        <f t="shared" si="2"/>
+        <v>65.11</v>
+      </c>
+      <c r="N12" s="40">
+        <f>N7</f>
+        <v>10</v>
+      </c>
+      <c r="O12" s="41">
+        <f t="shared" ref="O12:Q12" si="3">O7</f>
         <v>6</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P12" s="41">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Q7" s="6">
-        <v>7.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="29">
-        <v>7</v>
-      </c>
-      <c r="C8" s="29">
-        <v>4</v>
-      </c>
-      <c r="D8" s="29">
-        <v>4</v>
-      </c>
-      <c r="E8" s="29">
-        <v>49.61</v>
-      </c>
-      <c r="F8" s="30">
-        <v>35</v>
-      </c>
-      <c r="G8" s="31">
-        <v>30</v>
-      </c>
-      <c r="H8" s="31">
-        <v>24</v>
-      </c>
-      <c r="I8" s="32">
-        <v>121.8</v>
-      </c>
-      <c r="J8" s="31">
-        <v>36</v>
-      </c>
-      <c r="K8" s="31">
-        <v>30</v>
-      </c>
-      <c r="L8" s="31">
-        <v>30</v>
-      </c>
-      <c r="M8" s="31">
-        <v>135.72</v>
-      </c>
-      <c r="N8" s="30">
-        <v>11</v>
-      </c>
-      <c r="O8" s="31">
-        <v>6</v>
-      </c>
-      <c r="P8" s="31">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>57.62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="25">
-        <v>6</v>
-      </c>
-      <c r="C9" s="25">
-        <v>2</v>
-      </c>
-      <c r="D9" s="25">
-        <v>2</v>
-      </c>
-      <c r="E9" s="25">
-        <v>42.14</v>
-      </c>
-      <c r="F9" s="26">
-        <v>33</v>
-      </c>
-      <c r="G9" s="27">
-        <v>27</v>
-      </c>
-      <c r="H9" s="27">
-        <v>21</v>
-      </c>
-      <c r="I9" s="28">
-        <v>106.19</v>
-      </c>
-      <c r="J9" s="27">
-        <v>35</v>
-      </c>
-      <c r="K9" s="27">
-        <v>30</v>
-      </c>
-      <c r="L9" s="27">
-        <v>30</v>
-      </c>
-      <c r="M9" s="27">
-        <v>120.65</v>
-      </c>
-      <c r="N9" s="26">
-        <v>10</v>
-      </c>
-      <c r="O9" s="27">
-        <v>6</v>
-      </c>
-      <c r="P9" s="27">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="28">
-        <v>46.97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="25">
-        <v>6</v>
-      </c>
-      <c r="C10" s="25">
-        <v>2</v>
-      </c>
-      <c r="D10" s="25">
-        <v>2</v>
-      </c>
-      <c r="E10" s="25">
-        <v>42.95</v>
-      </c>
-      <c r="F10" s="26">
-        <v>33</v>
-      </c>
-      <c r="G10" s="27">
-        <v>27</v>
-      </c>
-      <c r="H10" s="27">
-        <v>21</v>
-      </c>
-      <c r="I10" s="28">
-        <v>110.5</v>
-      </c>
-      <c r="J10" s="27">
-        <v>35</v>
-      </c>
-      <c r="K10" s="27">
-        <v>30</v>
-      </c>
-      <c r="L10" s="27">
-        <v>30</v>
-      </c>
-      <c r="M10" s="27">
-        <v>115.78</v>
-      </c>
-      <c r="N10" s="26">
-        <v>10</v>
-      </c>
-      <c r="O10" s="27">
-        <v>6</v>
-      </c>
-      <c r="P10" s="27">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="28">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="25">
-        <v>6</v>
-      </c>
-      <c r="C11" s="25">
-        <v>2</v>
-      </c>
-      <c r="D11" s="25">
-        <v>2</v>
-      </c>
-      <c r="E11" s="25">
-        <v>48.14</v>
-      </c>
-      <c r="F11" s="26">
-        <v>15</v>
-      </c>
-      <c r="G11" s="27">
-        <v>9</v>
-      </c>
-      <c r="H11" s="27">
-        <v>3</v>
-      </c>
-      <c r="I11" s="28">
-        <v>67.97</v>
-      </c>
-      <c r="J11" s="27">
-        <v>10</v>
-      </c>
-      <c r="K11" s="27">
-        <v>4</v>
-      </c>
-      <c r="L11" s="27">
-        <v>4</v>
-      </c>
-      <c r="M11" s="27">
-        <v>66.75</v>
-      </c>
-      <c r="N11" s="26">
-        <v>10</v>
-      </c>
-      <c r="O11" s="27">
-        <v>6</v>
-      </c>
-      <c r="P11" s="27">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="28">
+      <c r="Q12" s="42">
+        <f t="shared" si="3"/>
         <v>50.25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="25">
-        <v>5</v>
-      </c>
-      <c r="C12" s="25">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="33">
+        <f>B12-B4</f>
+        <v>-2</v>
+      </c>
+      <c r="C13" s="34">
+        <f t="shared" ref="C13:Q13" si="4">C12-C4</f>
+        <v>-4</v>
+      </c>
+      <c r="D13" s="34">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="E13" s="31">
+        <f t="shared" si="4"/>
+        <v>-8.0499999999999972</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="4"/>
+        <v>-26</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="4"/>
+        <v>-27</v>
+      </c>
+      <c r="H13" s="30">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="4"/>
+        <v>-64.930000000000007</v>
+      </c>
+      <c r="J13" s="32">
+        <f t="shared" si="4"/>
+        <v>-26</v>
+      </c>
+      <c r="K13" s="30">
+        <f t="shared" si="4"/>
+        <v>-26</v>
+      </c>
+      <c r="L13" s="30">
+        <f t="shared" si="4"/>
+        <v>-26</v>
+      </c>
+      <c r="M13" s="31">
+        <f t="shared" si="4"/>
+        <v>-70.61</v>
+      </c>
+      <c r="N13" s="30">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O13" s="30">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D12" s="25">
+      <c r="P13" s="30">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E12" s="25">
-        <v>41.56</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26">
-        <v>9</v>
-      </c>
-      <c r="G13" s="27">
-        <v>3</v>
-      </c>
-      <c r="H13" s="27">
-        <v>3</v>
-      </c>
-      <c r="I13" s="28">
-        <v>56.87</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="35"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="39">
-        <f>B15-B7</f>
-        <v>-7</v>
-      </c>
-      <c r="C16" s="40">
-        <f t="shared" ref="C16:Q16" si="0">C15-C7</f>
-        <v>-4</v>
-      </c>
-      <c r="D16" s="40">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="E16" s="37">
-        <f t="shared" si="0"/>
-        <v>-6.9</v>
-      </c>
-      <c r="F16" s="36">
-        <f t="shared" si="0"/>
-        <v>-35</v>
-      </c>
-      <c r="G16" s="36">
-        <f t="shared" si="0"/>
-        <v>-30</v>
-      </c>
-      <c r="H16" s="36">
-        <f t="shared" si="0"/>
-        <v>-24</v>
-      </c>
-      <c r="I16" s="36">
-        <f t="shared" si="0"/>
-        <v>-17.23</v>
-      </c>
-      <c r="J16" s="38">
-        <f t="shared" si="0"/>
-        <v>-36</v>
-      </c>
-      <c r="K16" s="36">
-        <f t="shared" si="0"/>
-        <v>-30</v>
-      </c>
-      <c r="L16" s="36">
-        <f t="shared" si="0"/>
-        <v>-30</v>
-      </c>
-      <c r="M16" s="37">
-        <f t="shared" si="0"/>
-        <v>-18.079999999999998</v>
-      </c>
-      <c r="N16" s="36">
-        <f t="shared" si="0"/>
-        <v>-11</v>
-      </c>
-      <c r="O16" s="36">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="P16" s="36">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="Q16" s="37">
-        <f t="shared" si="0"/>
-        <v>-7.09</v>
+      <c r="Q13" s="31">
+        <f t="shared" si="4"/>
+        <v>-7.3699999999999974</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="B10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1518,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,30 +1489,30 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
@@ -1577,31 +1530,31 @@
       <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>0.99509999999999998</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>0.95199999999999996</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
@@ -1617,10 +1570,10 @@
         <v>548.62</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1">
@@ -1636,10 +1589,10 @@
         <v>6.94</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1">
@@ -1655,10 +1608,10 @@
         <v>15.66</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1">
@@ -1674,10 +1627,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
@@ -1693,10 +1646,10 @@
         <v>108.68</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
@@ -1712,10 +1665,10 @@
         <v>8593</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1">
@@ -1724,33 +1677,33 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>68</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>433</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>25.67</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>50.55</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>60.01</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>61.28</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/profile_table.xlsx
+++ b/profile_table.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\geekshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\geekshop-server\geekshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823C40DC-2CDA-4DB4-9EF8-68C539FDF3BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30015" windowHeight="11280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30015" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Профилирование" sheetId="4" r:id="rId1"/>
     <sheet name="Нагрузка" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>similar</t>
   </si>
@@ -42,15 +43,6 @@
     <t>/orders/update/1/</t>
   </si>
   <si>
-    <t>.-r32 -c32</t>
-  </si>
-  <si>
-    <t>.-r16 -c64</t>
-  </si>
-  <si>
-    <t>.-r8 -c128</t>
-  </si>
-  <si>
     <t>Число переходов</t>
   </si>
   <si>
@@ -96,24 +88,9 @@
     <t>Пропускная способность, МБ/сек</t>
   </si>
   <si>
-    <t>Killed</t>
-  </si>
-  <si>
-    <t>.-r12 -c96</t>
-  </si>
-  <si>
     <t>Изменения</t>
   </si>
   <si>
-    <t>.-r10 -c112</t>
-  </si>
-  <si>
-    <t>Когда число пользователей приближается к 100 сервер начинает падать, о чем свидетельствует доступность сервера и количество неудачных транзакций.</t>
-  </si>
-  <si>
-    <t>.-r9 -c120</t>
-  </si>
-  <si>
     <t>Профилирование 6 урока</t>
   </si>
   <si>
@@ -145,13 +122,31 @@
   </si>
   <si>
     <t>template cache order_form product</t>
+  </si>
+  <si>
+    <t>.-r16 -c16</t>
+  </si>
+  <si>
+    <t>.-r12 -c24</t>
+  </si>
+  <si>
+    <t>.-r10 -c28</t>
+  </si>
+  <si>
+    <t>.-r8 -c32</t>
+  </si>
+  <si>
+    <t>После кэширования сервер стал показывать плохие результаты, хотя число запросов к базе стало значительно меньше.</t>
+  </si>
+  <si>
+    <t>После профилирования и кэширования</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +187,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -456,11 +459,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -468,8 +544,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -536,9 +610,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -849,11 +945,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,88 +958,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="43"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="45"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>7</v>
@@ -995,461 +1091,461 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="22">
+        <v>7</v>
+      </c>
+      <c r="C4" s="22">
+        <v>4</v>
+      </c>
+      <c r="D4" s="22">
+        <v>4</v>
+      </c>
+      <c r="E4" s="22">
+        <v>49.61</v>
+      </c>
+      <c r="F4" s="23">
+        <v>35</v>
+      </c>
+      <c r="G4" s="24">
         <v>30</v>
       </c>
-      <c r="B4" s="24">
-        <v>7</v>
-      </c>
-      <c r="C4" s="24">
+      <c r="H4" s="24">
+        <v>24</v>
+      </c>
+      <c r="I4" s="25">
+        <v>121.8</v>
+      </c>
+      <c r="J4" s="24">
+        <v>36</v>
+      </c>
+      <c r="K4" s="24">
+        <v>30</v>
+      </c>
+      <c r="L4" s="24">
+        <v>30</v>
+      </c>
+      <c r="M4" s="24">
+        <v>135.72</v>
+      </c>
+      <c r="N4" s="23">
+        <v>11</v>
+      </c>
+      <c r="O4" s="24">
+        <v>6</v>
+      </c>
+      <c r="P4" s="24">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>57.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="18">
+        <v>6</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>42.14</v>
+      </c>
+      <c r="F5" s="19">
+        <v>33</v>
+      </c>
+      <c r="G5" s="20">
+        <v>27</v>
+      </c>
+      <c r="H5" s="20">
+        <v>21</v>
+      </c>
+      <c r="I5" s="21">
+        <v>106.19</v>
+      </c>
+      <c r="J5" s="20">
+        <v>35</v>
+      </c>
+      <c r="K5" s="20">
+        <v>30</v>
+      </c>
+      <c r="L5" s="20">
+        <v>30</v>
+      </c>
+      <c r="M5" s="20">
+        <v>120.65</v>
+      </c>
+      <c r="N5" s="19">
+        <v>10</v>
+      </c>
+      <c r="O5" s="20">
+        <v>6</v>
+      </c>
+      <c r="P5" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>46.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="18">
+        <v>6</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>42.95</v>
+      </c>
+      <c r="F6" s="19">
+        <v>33</v>
+      </c>
+      <c r="G6" s="20">
+        <v>27</v>
+      </c>
+      <c r="H6" s="20">
+        <v>21</v>
+      </c>
+      <c r="I6" s="21">
+        <v>110.5</v>
+      </c>
+      <c r="J6" s="20">
+        <v>35</v>
+      </c>
+      <c r="K6" s="20">
+        <v>30</v>
+      </c>
+      <c r="L6" s="20">
+        <v>30</v>
+      </c>
+      <c r="M6" s="20">
+        <v>115.78</v>
+      </c>
+      <c r="N6" s="19">
+        <v>10</v>
+      </c>
+      <c r="O6" s="20">
+        <v>6</v>
+      </c>
+      <c r="P6" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="18">
+        <v>6</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18">
+        <v>48.14</v>
+      </c>
+      <c r="F7" s="19">
+        <v>15</v>
+      </c>
+      <c r="G7" s="20">
+        <v>9</v>
+      </c>
+      <c r="H7" s="20">
+        <v>3</v>
+      </c>
+      <c r="I7" s="21">
+        <v>67.97</v>
+      </c>
+      <c r="J7" s="20">
+        <v>10</v>
+      </c>
+      <c r="K7" s="20">
         <v>4</v>
       </c>
-      <c r="D4" s="24">
+      <c r="L7" s="20">
         <v>4</v>
       </c>
-      <c r="E4" s="24">
-        <v>49.61</v>
-      </c>
-      <c r="F4" s="25">
-        <v>35</v>
-      </c>
-      <c r="G4" s="26">
+      <c r="M7" s="20">
+        <v>66.75</v>
+      </c>
+      <c r="N7" s="19">
+        <v>10</v>
+      </c>
+      <c r="O7" s="20">
+        <v>6</v>
+      </c>
+      <c r="P7" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>50.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>41.56</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19">
+        <v>9</v>
+      </c>
+      <c r="G9" s="20">
+        <v>3</v>
+      </c>
+      <c r="H9" s="20">
+        <v>3</v>
+      </c>
+      <c r="I9" s="21">
+        <v>56.87</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="21"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="26">
-        <v>24</v>
-      </c>
-      <c r="I4" s="27">
-        <v>121.8</v>
-      </c>
-      <c r="J4" s="26">
-        <v>36</v>
-      </c>
-      <c r="K4" s="26">
-        <v>30</v>
-      </c>
-      <c r="L4" s="26">
-        <v>30</v>
-      </c>
-      <c r="M4" s="26">
-        <v>135.72</v>
-      </c>
-      <c r="N4" s="25">
-        <v>11</v>
-      </c>
-      <c r="O4" s="26">
-        <v>6</v>
-      </c>
-      <c r="P4" s="26">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="27">
-        <v>57.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="20">
-        <v>6</v>
-      </c>
-      <c r="C5" s="20">
-        <v>2</v>
-      </c>
-      <c r="D5" s="20">
-        <v>2</v>
-      </c>
-      <c r="E5" s="20">
-        <v>42.14</v>
-      </c>
-      <c r="F5" s="21">
-        <v>33</v>
-      </c>
-      <c r="G5" s="22">
-        <v>27</v>
-      </c>
-      <c r="H5" s="22">
-        <v>21</v>
-      </c>
-      <c r="I5" s="23">
-        <v>106.19</v>
-      </c>
-      <c r="J5" s="22">
-        <v>35</v>
-      </c>
-      <c r="K5" s="22">
-        <v>30</v>
-      </c>
-      <c r="L5" s="22">
-        <v>30</v>
-      </c>
-      <c r="M5" s="22">
-        <v>120.65</v>
-      </c>
-      <c r="N5" s="21">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="46"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="20">
         <v>10</v>
       </c>
-      <c r="O5" s="22">
-        <v>6</v>
-      </c>
-      <c r="P5" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>46.97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="20">
-        <v>6</v>
-      </c>
-      <c r="C6" s="20">
-        <v>2</v>
-      </c>
-      <c r="D6" s="20">
-        <v>2</v>
-      </c>
-      <c r="E6" s="20">
-        <v>42.95</v>
-      </c>
-      <c r="F6" s="21">
-        <v>33</v>
-      </c>
-      <c r="G6" s="22">
-        <v>27</v>
-      </c>
-      <c r="H6" s="22">
-        <v>21</v>
-      </c>
-      <c r="I6" s="23">
-        <v>110.5</v>
-      </c>
-      <c r="J6" s="22">
-        <v>35</v>
-      </c>
-      <c r="K6" s="22">
-        <v>30</v>
-      </c>
-      <c r="L6" s="22">
-        <v>30</v>
-      </c>
-      <c r="M6" s="22">
-        <v>115.78</v>
-      </c>
-      <c r="N6" s="21">
-        <v>10</v>
-      </c>
-      <c r="O6" s="22">
-        <v>6</v>
-      </c>
-      <c r="P6" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="20">
-        <v>6</v>
-      </c>
-      <c r="C7" s="20">
-        <v>2</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2</v>
-      </c>
-      <c r="E7" s="20">
-        <v>48.14</v>
-      </c>
-      <c r="F7" s="21">
-        <v>15</v>
-      </c>
-      <c r="G7" s="22">
-        <v>9</v>
-      </c>
-      <c r="H7" s="22">
-        <v>3</v>
-      </c>
-      <c r="I7" s="23">
-        <v>67.97</v>
-      </c>
-      <c r="J7" s="22">
-        <v>10</v>
-      </c>
-      <c r="K7" s="22">
+      <c r="K11" s="20">
         <v>4</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L11" s="20">
         <v>4</v>
       </c>
-      <c r="M7" s="22">
-        <v>66.75</v>
-      </c>
-      <c r="N7" s="21">
-        <v>10</v>
-      </c>
-      <c r="O7" s="22">
-        <v>6</v>
-      </c>
-      <c r="P7" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>50.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="20">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20">
-        <v>41.56</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21">
-        <v>9</v>
-      </c>
-      <c r="G9" s="22">
-        <v>3</v>
-      </c>
-      <c r="H9" s="22">
-        <v>3</v>
-      </c>
-      <c r="I9" s="23">
-        <v>56.87</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="22">
-        <v>10</v>
-      </c>
-      <c r="K11" s="22">
-        <v>4</v>
-      </c>
-      <c r="L11" s="22">
-        <v>4</v>
-      </c>
-      <c r="M11" s="22">
+      <c r="M11" s="20">
         <v>65.11</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="38">
+      <c r="A12" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="36">
         <f>B8</f>
         <v>5</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="36">
         <f t="shared" ref="C12:E12" si="0">C8</f>
         <v>0</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="37">
         <f t="shared" si="0"/>
         <v>41.56</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="26">
         <f>F9</f>
         <v>9</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="18">
         <f t="shared" ref="G12:I12" si="1">G9</f>
         <v>3</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="27">
         <f t="shared" si="1"/>
         <v>56.87</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="18">
         <f>J11</f>
         <v>10</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="18">
         <f t="shared" ref="K12:M12" si="2">K11</f>
         <v>4</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="18">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="18">
         <f t="shared" si="2"/>
         <v>65.11</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="38">
         <f>N7</f>
         <v>10</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="39">
         <f t="shared" ref="O12:Q12" si="3">O7</f>
         <v>6</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="39">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="Q12" s="40">
         <f t="shared" si="3"/>
         <v>50.25</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="33">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="31">
         <f>B12-B4</f>
         <v>-2</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="32">
         <f t="shared" ref="C13:Q13" si="4">C12-C4</f>
         <v>-4</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="29">
         <f t="shared" si="4"/>
         <v>-8.0499999999999972</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="28">
         <f t="shared" si="4"/>
         <v>-26</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="28">
         <f t="shared" si="4"/>
         <v>-27</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="28">
         <f t="shared" si="4"/>
         <v>-21</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="28">
         <f t="shared" si="4"/>
         <v>-64.930000000000007</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="30">
         <f t="shared" si="4"/>
         <v>-26</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="28">
         <f t="shared" si="4"/>
         <v>-26</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="28">
         <f t="shared" si="4"/>
         <v>-26</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="29">
         <f t="shared" si="4"/>
         <v>-70.61</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="28">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="29">
         <f t="shared" si="4"/>
         <v>-7.3699999999999974</v>
       </c>
@@ -1468,244 +1564,396 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B4" s="1">
+        <v>3382</v>
+      </c>
+      <c r="C4" s="51">
+        <v>1503</v>
+      </c>
+      <c r="D4" s="51">
+        <v>224</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>13408</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13568</v>
-      </c>
-      <c r="D4" s="1">
-        <v>13678</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8593</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="C5" s="52">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="D5" s="53">
+        <v>0.4667</v>
+      </c>
+      <c r="E5" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>682.55</v>
+      </c>
+      <c r="C6" s="51">
+        <v>606.33000000000004</v>
+      </c>
+      <c r="D6" s="51">
+        <v>695.73</v>
+      </c>
+      <c r="E6" s="4">
+        <v>603.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="C7" s="51">
+        <v>9.59</v>
+      </c>
+      <c r="D7" s="51">
+        <v>84.93</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="C8" s="51">
+        <v>2.48</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0.32</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C9" s="51">
+        <v>0.33</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>313.88</v>
-      </c>
-      <c r="C6" s="1">
-        <v>334.31</v>
-      </c>
-      <c r="D6" s="1">
-        <v>403.12</v>
-      </c>
-      <c r="E6" s="1">
-        <v>548.62</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B10" s="1">
+        <v>15.24</v>
+      </c>
+      <c r="C10" s="51">
+        <v>23.78</v>
+      </c>
+      <c r="D10" s="51">
+        <v>27.34</v>
+      </c>
+      <c r="E10" s="4">
+        <v>29.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.71</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6.94</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B11" s="1">
+        <v>3384</v>
+      </c>
+      <c r="C11" s="51">
+        <v>1503</v>
+      </c>
+      <c r="D11" s="51">
+        <v>246</v>
+      </c>
+      <c r="E11" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
-        <v>42.72</v>
-      </c>
-      <c r="C8" s="1">
-        <v>40.590000000000003</v>
-      </c>
-      <c r="D8" s="1">
-        <v>33.93</v>
-      </c>
-      <c r="E8" s="1">
-        <v>15.66</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4.03</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="51">
+        <v>147</v>
+      </c>
+      <c r="D12" s="54">
+        <v>256</v>
+      </c>
+      <c r="E12" s="48">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
-        <v>31.46</v>
-      </c>
-      <c r="C10" s="1">
-        <v>62.66</v>
-      </c>
-      <c r="D10" s="1">
-        <v>92.07</v>
-      </c>
-      <c r="E10" s="1">
-        <v>108.68</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>13408</v>
-      </c>
-      <c r="C11" s="1">
-        <v>13568</v>
-      </c>
-      <c r="D11" s="1">
-        <v>13678</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8593</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>68</v>
-      </c>
-      <c r="E12" s="8">
-        <v>433</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="B13" s="2">
-        <v>25.67</v>
-      </c>
-      <c r="C13" s="2">
-        <v>50.55</v>
-      </c>
-      <c r="D13" s="2">
         <v>60.01</v>
       </c>
-      <c r="E13" s="2">
-        <v>61.28</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="55">
+        <v>60.08</v>
+      </c>
+      <c r="D13" s="55">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="E13" s="5">
+        <v>67.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3234</v>
+      </c>
+      <c r="C15" s="51">
+        <v>351</v>
+      </c>
+      <c r="D15" s="51">
+        <v>121</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="56">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="C16" s="57">
+        <v>0.57830000000000004</v>
+      </c>
+      <c r="D16" s="57">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="E16" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>737.43</v>
+      </c>
+      <c r="C17" s="51">
+        <v>802.71</v>
+      </c>
+      <c r="D17" s="51">
+        <v>706.02</v>
+      </c>
+      <c r="E17" s="4">
+        <v>606.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="C18" s="51">
+        <v>53.87</v>
+      </c>
+      <c r="D18" s="51">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C19" s="51">
+        <v>0.44</v>
+      </c>
+      <c r="D19" s="51">
+        <v>0.17</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="C20" s="51">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3">
+        <v>14.83</v>
+      </c>
+      <c r="C21" s="51">
+        <v>23.55</v>
+      </c>
+      <c r="D21" s="51">
+        <v>27.56</v>
+      </c>
+      <c r="E21" s="4">
+        <v>30.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3238</v>
+      </c>
+      <c r="C22" s="51">
+        <v>363</v>
+      </c>
+      <c r="D22" s="51">
+        <v>149</v>
+      </c>
+      <c r="E22" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="54">
+        <v>256</v>
+      </c>
+      <c r="D23" s="54">
+        <v>269</v>
+      </c>
+      <c r="E23" s="48">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="49">
+        <v>62.75</v>
+      </c>
+      <c r="C24" s="55">
+        <v>62.81</v>
+      </c>
+      <c r="D24" s="55">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="E24" s="5">
+        <v>69.099999999999994</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
